--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H2">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J2">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.720171333333333</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N2">
-        <v>5.160513999999999</v>
+        <v>9.060001</v>
       </c>
       <c r="O2">
-        <v>0.1961456356393658</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P2">
-        <v>0.1961456356393657</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q2">
-        <v>12.17827806671533</v>
+        <v>28.82934698871345</v>
       </c>
       <c r="R2">
-        <v>109.604502600438</v>
+        <v>259.464122898421</v>
       </c>
       <c r="S2">
-        <v>0.09873139772223705</v>
+        <v>0.1711660556324494</v>
       </c>
       <c r="T2">
-        <v>0.09873139772223703</v>
+        <v>0.1711660556324494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H3">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J3">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.229166</v>
       </c>
       <c r="O3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P3">
-        <v>0.464817562438416</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q3">
-        <v>28.85956400312466</v>
+        <v>38.91377826520956</v>
       </c>
       <c r="R3">
-        <v>259.7360760281219</v>
+        <v>350.224004386886</v>
       </c>
       <c r="S3">
-        <v>0.2339694557862373</v>
+        <v>0.2310395007566179</v>
       </c>
       <c r="T3">
-        <v>0.2339694557862373</v>
+        <v>0.2310395007566179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.079688999999999</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H4">
-        <v>21.239067</v>
+        <v>28.638421</v>
       </c>
       <c r="I4">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J4">
-        <v>0.5033576067109902</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.973308</v>
+        <v>3.229698</v>
       </c>
       <c r="N4">
-        <v>8.919924</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O4">
-        <v>0.3390368019222182</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P4">
-        <v>0.3390368019222182</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q4">
-        <v>21.050095941212</v>
+        <v>30.831150342286</v>
       </c>
       <c r="R4">
-        <v>189.450863470908</v>
+        <v>277.480353080574</v>
       </c>
       <c r="S4">
-        <v>0.1706567532025158</v>
+        <v>0.1830511942142205</v>
       </c>
       <c r="T4">
-        <v>0.1706567532025158</v>
+        <v>0.1830511942142205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.058683666666667</v>
+        <v>9.546140333333334</v>
       </c>
       <c r="H5">
-        <v>12.176051</v>
+        <v>28.638421</v>
       </c>
       <c r="I5">
-        <v>0.2885676612136945</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="J5">
-        <v>0.2885676612136945</v>
+        <v>0.587227294878132</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.720171333333333</v>
+        <v>0.03476766666666667</v>
       </c>
       <c r="N5">
-        <v>5.160513999999999</v>
+        <v>0.104303</v>
       </c>
       <c r="O5">
-        <v>0.1961456356393658</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="P5">
-        <v>0.1961456356393657</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="Q5">
-        <v>6.981631294468222</v>
+        <v>0.3318970250625556</v>
       </c>
       <c r="R5">
-        <v>62.83468165021399</v>
+        <v>2.987073225563</v>
       </c>
       <c r="S5">
-        <v>0.05660128733372527</v>
+        <v>0.001970544274844051</v>
       </c>
       <c r="T5">
-        <v>0.05660128733372526</v>
+        <v>0.001970544274844051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>12.176051</v>
       </c>
       <c r="I6">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J6">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.076388666666666</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N6">
-        <v>12.229166</v>
+        <v>9.060001</v>
       </c>
       <c r="O6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P6">
-        <v>0.464817562438416</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q6">
-        <v>16.54477210038511</v>
+        <v>12.25722602622789</v>
       </c>
       <c r="R6">
-        <v>148.902948903466</v>
+        <v>110.315034236051</v>
       </c>
       <c r="S6">
-        <v>0.1341313168839041</v>
+        <v>0.07277379653192267</v>
       </c>
       <c r="T6">
-        <v>0.1341313168839041</v>
+        <v>0.07277379653192267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>12.176051</v>
       </c>
       <c r="I7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J7">
-        <v>0.2885676612136945</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.973308</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N7">
-        <v>8.919924</v>
+        <v>12.229166</v>
       </c>
       <c r="O7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P7">
-        <v>0.3390368019222182</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q7">
-        <v>12.06771661556933</v>
+        <v>16.54477210038511</v>
       </c>
       <c r="R7">
-        <v>108.609449540124</v>
+        <v>148.902948903466</v>
       </c>
       <c r="S7">
-        <v>0.09783505699606514</v>
+        <v>0.09822988300322556</v>
       </c>
       <c r="T7">
-        <v>0.09783505699606512</v>
+        <v>0.09822988300322558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.463241333333334</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H8">
-        <v>7.389724000000001</v>
+        <v>12.176051</v>
       </c>
       <c r="I8">
-        <v>0.1751335775198961</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J8">
-        <v>0.175133577519896</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.720171333333333</v>
+        <v>3.229698</v>
       </c>
       <c r="N8">
-        <v>5.160513999999999</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O8">
-        <v>0.1961456356393658</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P8">
-        <v>0.1961456356393657</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q8">
-        <v>4.237197128681778</v>
+        <v>13.108322520866</v>
       </c>
       <c r="R8">
-        <v>38.134774158136</v>
+        <v>117.974902687794</v>
       </c>
       <c r="S8">
-        <v>0.03435168688443615</v>
+        <v>0.07782694012226631</v>
       </c>
       <c r="T8">
-        <v>0.03435168688443614</v>
+        <v>0.07782694012226632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.463241333333334</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H9">
-        <v>7.389724000000001</v>
+        <v>12.176051</v>
       </c>
       <c r="I9">
-        <v>0.1751335775198961</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="J9">
-        <v>0.175133577519896</v>
+        <v>0.2496684258894083</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.076388666666666</v>
+        <v>0.03476766666666667</v>
       </c>
       <c r="N9">
-        <v>12.229166</v>
+        <v>0.104303</v>
       </c>
       <c r="O9">
-        <v>0.464817562438416</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="P9">
-        <v>0.464817562438416</v>
+        <v>0.003355675548516525</v>
       </c>
       <c r="Q9">
-        <v>10.04112905446489</v>
+        <v>0.1411109608281111</v>
       </c>
       <c r="R9">
-        <v>90.370161490184</v>
+        <v>1.269998647453</v>
       </c>
       <c r="S9">
-        <v>0.08140516260391746</v>
+        <v>0.0008378062319936974</v>
       </c>
       <c r="T9">
-        <v>0.08140516260391743</v>
+        <v>0.0008378062319936975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.463241333333334</v>
+        <v>2.210442</v>
       </c>
       <c r="H10">
-        <v>7.389724000000001</v>
+        <v>6.631326</v>
       </c>
       <c r="I10">
-        <v>0.1751335775198961</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J10">
-        <v>0.175133577519896</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.973308</v>
+        <v>3.020000333333333</v>
       </c>
       <c r="N10">
-        <v>8.919924</v>
+        <v>9.060001</v>
       </c>
       <c r="O10">
-        <v>0.3390368019222182</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="P10">
-        <v>0.3390368019222182</v>
+        <v>0.291481777372034</v>
       </c>
       <c r="Q10">
-        <v>7.323975162330668</v>
+        <v>6.675535576814</v>
       </c>
       <c r="R10">
-        <v>65.91577646097601</v>
+        <v>60.079820191326</v>
       </c>
       <c r="S10">
-        <v>0.05937672803154245</v>
+        <v>0.0396340955750636</v>
       </c>
       <c r="T10">
-        <v>0.05937672803154243</v>
+        <v>0.0396340955750636</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.463315</v>
+        <v>2.210442</v>
       </c>
       <c r="H11">
-        <v>1.389945</v>
+        <v>6.631326</v>
       </c>
       <c r="I11">
-        <v>0.03294115455541937</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J11">
-        <v>0.03294115455541937</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.720171333333333</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N11">
-        <v>5.160513999999999</v>
+        <v>12.229166</v>
       </c>
       <c r="O11">
-        <v>0.1961456356393658</v>
+        <v>0.3934413518781783</v>
       </c>
       <c r="P11">
-        <v>0.1961456356393657</v>
+        <v>0.3934413518781784</v>
       </c>
       <c r="Q11">
-        <v>0.7969811813033332</v>
+        <v>9.010620717123999</v>
       </c>
       <c r="R11">
-        <v>7.172830631729998</v>
+        <v>81.095586454116</v>
       </c>
       <c r="S11">
-        <v>0.006461263698967322</v>
+        <v>0.05349800006063113</v>
       </c>
       <c r="T11">
-        <v>0.006461263698967321</v>
+        <v>0.05349800006063114</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.463315</v>
+        <v>2.210442</v>
       </c>
       <c r="H12">
-        <v>1.389945</v>
+        <v>6.631326</v>
       </c>
       <c r="I12">
-        <v>0.03294115455541937</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="J12">
-        <v>0.03294115455541937</v>
+        <v>0.1359745227725727</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.076388666666666</v>
+        <v>3.229698</v>
       </c>
       <c r="N12">
-        <v>12.229166</v>
+        <v>9.689094000000001</v>
       </c>
       <c r="O12">
-        <v>0.464817562438416</v>
+        <v>0.311721195201271</v>
       </c>
       <c r="P12">
-        <v>0.464817562438416</v>
+        <v>0.3117211952012711</v>
       </c>
       <c r="Q12">
-        <v>1.888652015096666</v>
+        <v>7.139060106516001</v>
       </c>
       <c r="R12">
-        <v>16.99786813587</v>
+        <v>64.25154095864401</v>
       </c>
       <c r="S12">
-        <v>0.01531162716435716</v>
+        <v>0.04238614075558879</v>
       </c>
       <c r="T12">
-        <v>0.01531162716435715</v>
+        <v>0.0423861407555888</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.210442</v>
+      </c>
+      <c r="H13">
+        <v>6.631326</v>
+      </c>
+      <c r="I13">
+        <v>0.1359745227725727</v>
+      </c>
+      <c r="J13">
+        <v>0.1359745227725727</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03476766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.104303</v>
+      </c>
+      <c r="O13">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="P13">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="Q13">
+        <v>0.076851910642</v>
+      </c>
+      <c r="R13">
+        <v>0.6916671957780001</v>
+      </c>
+      <c r="S13">
+        <v>0.0004562863812891255</v>
+      </c>
+      <c r="T13">
+        <v>0.0004562863812891255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4410293333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.323088</v>
+      </c>
+      <c r="I14">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="J14">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.020000333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.060001</v>
+      </c>
+      <c r="O14">
+        <v>0.291481777372034</v>
+      </c>
+      <c r="P14">
+        <v>0.291481777372034</v>
+      </c>
+      <c r="Q14">
+        <v>1.331908733676444</v>
+      </c>
+      <c r="R14">
+        <v>11.987178603088</v>
+      </c>
+      <c r="S14">
+        <v>0.007907829632598328</v>
+      </c>
+      <c r="T14">
+        <v>0.007907829632598328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4410293333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.323088</v>
+      </c>
+      <c r="I15">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="J15">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N15">
+        <v>12.229166</v>
+      </c>
+      <c r="O15">
+        <v>0.3934413518781783</v>
+      </c>
+      <c r="P15">
+        <v>0.3934413518781784</v>
+      </c>
+      <c r="Q15">
+        <v>1.797806976067555</v>
+      </c>
+      <c r="R15">
+        <v>16.180262784608</v>
+      </c>
+      <c r="S15">
+        <v>0.01067396805770374</v>
+      </c>
+      <c r="T15">
+        <v>0.01067396805770374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.463315</v>
-      </c>
-      <c r="H13">
-        <v>1.389945</v>
-      </c>
-      <c r="I13">
-        <v>0.03294115455541937</v>
-      </c>
-      <c r="J13">
-        <v>0.03294115455541937</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.973308</v>
-      </c>
-      <c r="N13">
-        <v>8.919924</v>
-      </c>
-      <c r="O13">
-        <v>0.3390368019222182</v>
-      </c>
-      <c r="P13">
-        <v>0.3390368019222182</v>
-      </c>
-      <c r="Q13">
-        <v>1.37757819602</v>
-      </c>
-      <c r="R13">
-        <v>12.39820376418</v>
-      </c>
-      <c r="S13">
-        <v>0.01116826369209489</v>
-      </c>
-      <c r="T13">
-        <v>0.01116826369209489</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4410293333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.323088</v>
+      </c>
+      <c r="I16">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="J16">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.229698</v>
+      </c>
+      <c r="N16">
+        <v>9.689094000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.311721195201271</v>
+      </c>
+      <c r="P16">
+        <v>0.3117211952012711</v>
+      </c>
+      <c r="Q16">
+        <v>1.424391555808</v>
+      </c>
+      <c r="R16">
+        <v>12.819524002272</v>
+      </c>
+      <c r="S16">
+        <v>0.008456920109195425</v>
+      </c>
+      <c r="T16">
+        <v>0.008456920109195427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4410293333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.323088</v>
+      </c>
+      <c r="I17">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="J17">
+        <v>0.02712975645988715</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03476766666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.104303</v>
+      </c>
+      <c r="O17">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="P17">
+        <v>0.003355675548516525</v>
+      </c>
+      <c r="Q17">
+        <v>0.01533356085155556</v>
+      </c>
+      <c r="R17">
+        <v>0.138002047664</v>
+      </c>
+      <c r="S17">
+        <v>9.103866038965154E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.103866038965156E-05</v>
       </c>
     </row>
   </sheetData>
